--- a/data/Sablefish_Input_matchMGMTqselex.xlsx
+++ b/data/Sablefish_Input_matchMGMTqselex.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="2760" windowWidth="38400" windowHeight="22620" tabRatio="767" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="43680" yWindow="2760" windowWidth="38400" windowHeight="22620" tabRatio="767" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="182">
   <si>
     <t>Par</t>
   </si>
@@ -607,11 +607,29 @@
   <si>
     <t>Dome Shaped Selex, fish3</t>
   </si>
+  <si>
+    <t>not log scale</t>
+  </si>
+  <si>
+    <t>log scale values</t>
+  </si>
+  <si>
+    <t>not log scale (all of these)</t>
+  </si>
+  <si>
+    <t>not on log scale</t>
+  </si>
+  <si>
+    <t>log scale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -863,7 +881,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -910,6 +928,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1501,15 +1521,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -1522,137 +1545,179 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="30">
+        <v>7.9101768464831395</v>
+      </c>
+      <c r="E7" s="30">
+        <v>2.0681501388600001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1.7849874375100001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1.7849874375100001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1.7849874375100001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="18">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1.7849874375100001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="18">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1.7849874375100001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="18">
         <v>6</v>
       </c>
-      <c r="C13" s="17">
-        <v>1.62</v>
+      <c r="C13" s="31">
+        <v>5.9595050808893495</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1.7849874375100001</v>
       </c>
     </row>
   </sheetData>
@@ -1668,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1744,7 @@
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -1699,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
@@ -1710,16 +1775,30 @@
         <v>48</v>
       </c>
       <c r="D2" s="12">
-        <v>0.74323897621000001</v>
+        <v>2.1027352058381443</v>
       </c>
       <c r="E2" s="12">
-        <v>1.5350395671799999</v>
+        <v>4.6415091777498318</v>
       </c>
       <c r="F2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>EXP(M2)</f>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K2">
+        <f>EXP(N2)</f>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.74323897621000001</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1.5350395671799999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>64</v>
       </c>
@@ -1730,13 +1809,30 @@
         <v>49</v>
       </c>
       <c r="D3" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">EXP(M3)</f>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">EXP(N3)</f>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M3" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E3" s="29">
+      <c r="N3" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
@@ -1748,8 +1844,18 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>64</v>
       </c>
@@ -1760,13 +1866,27 @@
         <v>48</v>
       </c>
       <c r="D5" s="12">
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M5" s="12">
         <v>0.74323897621000001</v>
       </c>
-      <c r="E5" s="12">
+      <c r="N5" s="12">
         <v>1.5350395671799999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
@@ -1777,13 +1897,27 @@
         <v>49</v>
       </c>
       <c r="D6" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M6" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E6" s="29">
+      <c r="N6" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>64</v>
       </c>
@@ -1795,8 +1929,18 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>64</v>
       </c>
@@ -1807,13 +1951,27 @@
         <v>48</v>
       </c>
       <c r="D8" s="12">
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M8" s="12">
         <v>0.74323897621000001</v>
       </c>
-      <c r="E8" s="12">
+      <c r="N8" s="12">
         <v>1.5350395671799999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>64</v>
       </c>
@@ -1824,13 +1982,27 @@
         <v>49</v>
       </c>
       <c r="D9" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M9" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E9" s="29">
+      <c r="N9" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>64</v>
       </c>
@@ -1842,8 +2014,18 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>64</v>
       </c>
@@ -1854,13 +2036,27 @@
         <v>48</v>
       </c>
       <c r="D11" s="12">
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M11" s="12">
         <v>0.74323897621000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="N11" s="12">
         <v>1.5350395671799999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
@@ -1871,13 +2067,27 @@
         <v>49</v>
       </c>
       <c r="D12" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E12" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M12" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E12" s="29">
+      <c r="N12" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>64</v>
       </c>
@@ -1889,8 +2099,18 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>64</v>
       </c>
@@ -1901,13 +2121,27 @@
         <v>48</v>
       </c>
       <c r="D14" s="12">
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M14" s="12">
         <v>0.74323897621000001</v>
       </c>
-      <c r="E14" s="12">
+      <c r="N14" s="12">
         <v>1.5350395671799999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -1918,13 +2152,27 @@
         <v>49</v>
       </c>
       <c r="D15" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M15" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E15" s="29">
+      <c r="N15" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -1936,8 +2184,18 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -1948,13 +2206,27 @@
         <v>48</v>
       </c>
       <c r="D17" s="12">
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.1027352058381443</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.6415091777498318</v>
+      </c>
+      <c r="M17" s="12">
         <v>0.74323897621000001</v>
       </c>
-      <c r="E17" s="12">
+      <c r="N17" s="12">
         <v>1.5350395671799999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -1965,13 +2237,27 @@
         <v>49</v>
       </c>
       <c r="D18" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M18" s="29">
         <v>0.764917256584</v>
       </c>
-      <c r="E18" s="29">
+      <c r="N18" s="29">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>64</v>
       </c>
@@ -1983,8 +2269,18 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
@@ -1995,16 +2291,30 @@
         <v>48</v>
       </c>
       <c r="D20" s="19">
-        <v>1.07528048238</v>
+        <v>2.9308148271784087</v>
       </c>
       <c r="E20" s="19">
-        <v>1.14893337353</v>
+        <v>3.1548260934218018</v>
       </c>
       <c r="F20" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1.07528048238</v>
+      </c>
+      <c r="N20" s="19">
+        <v>1.14893337353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
@@ -2015,13 +2325,27 @@
         <v>49</v>
       </c>
       <c r="D21" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M21" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E21" s="19">
+      <c r="N21" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
@@ -2033,8 +2357,18 @@
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
@@ -2044,14 +2378,28 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M23" s="21">
         <v>1.07528048238</v>
       </c>
-      <c r="E23" s="21">
+      <c r="N23" s="21">
         <v>1.14893337353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
@@ -2062,13 +2410,27 @@
         <v>49</v>
       </c>
       <c r="D24" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M24" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E24" s="19">
+      <c r="N24" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
@@ -2080,8 +2442,18 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>65</v>
       </c>
@@ -2091,14 +2463,28 @@
       <c r="C26" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M26" s="23">
         <v>1.07528048238</v>
       </c>
-      <c r="E26" s="23">
+      <c r="N26" s="23">
         <v>1.14893337353</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>65</v>
       </c>
@@ -2109,13 +2495,27 @@
         <v>49</v>
       </c>
       <c r="D27" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M27" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E27" s="19">
+      <c r="N27" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>65</v>
       </c>
@@ -2127,8 +2527,18 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>65</v>
       </c>
@@ -2138,14 +2548,28 @@
       <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="19">
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M29" s="24">
         <v>1.07528048238</v>
       </c>
-      <c r="E29" s="24">
+      <c r="N29" s="24">
         <v>1.14893337353</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -2156,13 +2580,27 @@
         <v>49</v>
       </c>
       <c r="D30" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M30" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E30" s="19">
+      <c r="N30" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>65</v>
       </c>
@@ -2174,8 +2612,18 @@
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>65</v>
       </c>
@@ -2185,14 +2633,28 @@
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M32" s="23">
         <v>1.07528048238</v>
       </c>
-      <c r="E32" s="24">
+      <c r="N32" s="24">
         <v>1.14893337353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2203,13 +2665,27 @@
         <v>49</v>
       </c>
       <c r="D33" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M33" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E33" s="19">
+      <c r="N33" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>65</v>
       </c>
@@ -2221,8 +2697,18 @@
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>65</v>
       </c>
@@ -2232,14 +2718,28 @@
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="E35" s="19">
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>2.9308148271784087</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>3.1548260934218018</v>
+      </c>
+      <c r="M35" s="23">
         <v>1.07528048238</v>
       </c>
-      <c r="E35" s="24">
+      <c r="N35" s="24">
         <v>1.14893337353</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
@@ -2250,13 +2750,27 @@
         <v>49</v>
       </c>
       <c r="D36" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M36" s="19">
         <v>0.764917256584</v>
       </c>
-      <c r="E36" s="19">
+      <c r="N36" s="19">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>65</v>
       </c>
@@ -2268,8 +2782,18 @@
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>55</v>
       </c>
@@ -2284,8 +2808,18 @@
       <c r="F38" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>55</v>
       </c>
@@ -2296,16 +2830,30 @@
         <v>49</v>
       </c>
       <c r="D39" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E39" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M39" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N39" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2316,16 +2864,30 @@
         <v>50</v>
       </c>
       <c r="D40" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E40" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M40" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N40" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>55</v>
       </c>
@@ -2340,8 +2902,18 @@
       <c r="F41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>55</v>
       </c>
@@ -2352,16 +2924,30 @@
         <v>49</v>
       </c>
       <c r="D42" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E42" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F42" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N42" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>55</v>
       </c>
@@ -2372,16 +2958,30 @@
         <v>50</v>
       </c>
       <c r="D43" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E43" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M43" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N43" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>55</v>
       </c>
@@ -2396,8 +2996,18 @@
       <c r="F44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
@@ -2408,16 +3018,30 @@
         <v>49</v>
       </c>
       <c r="D45" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E45" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M45" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N45" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>55</v>
       </c>
@@ -2428,16 +3052,30 @@
         <v>50</v>
       </c>
       <c r="D46" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E46" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M46" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N46" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
@@ -2452,8 +3090,18 @@
       <c r="F47" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>55</v>
       </c>
@@ -2464,16 +3112,30 @@
         <v>49</v>
       </c>
       <c r="D48" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E48" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M48" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N48" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>55</v>
       </c>
@@ -2484,16 +3146,30 @@
         <v>50</v>
       </c>
       <c r="D49" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E49" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M49" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N49" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>55</v>
       </c>
@@ -2508,8 +3184,18 @@
       <c r="F50" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -2520,16 +3206,30 @@
         <v>49</v>
       </c>
       <c r="D51" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E51" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M51" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N51" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>55</v>
       </c>
@@ -2540,16 +3240,30 @@
         <v>50</v>
       </c>
       <c r="D52" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E52" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M52" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N52" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>55</v>
       </c>
@@ -2564,8 +3278,18 @@
       <c r="F53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>55</v>
       </c>
@@ -2576,16 +3300,30 @@
         <v>49</v>
       </c>
       <c r="D54" s="12">
-        <v>1.32232756812</v>
+        <v>3.7521445935201143</v>
       </c>
       <c r="E54" s="12">
-        <v>2.24457916287</v>
+        <v>9.4364435149214696</v>
       </c>
       <c r="F54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>3.7521445935201143</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>9.4364435149214696</v>
+      </c>
+      <c r="M54" s="12">
+        <v>1.32232756812</v>
+      </c>
+      <c r="N54" s="12">
+        <v>2.24457916287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
@@ -2596,16 +3334,30 @@
         <v>50</v>
       </c>
       <c r="D55" s="12">
-        <v>1.6175585831199999</v>
+        <v>5.0407686638346085</v>
       </c>
       <c r="E55" s="12">
-        <v>2.2318979007599999</v>
+        <v>9.3175330621705896</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>5.0407686638346085</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>9.3175330621705896</v>
+      </c>
+      <c r="M55" s="12">
+        <v>1.6175585831199999</v>
+      </c>
+      <c r="N55" s="12">
+        <v>2.2318979007599999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>57</v>
       </c>
@@ -2616,16 +3368,30 @@
         <v>48</v>
       </c>
       <c r="D56" s="13">
-        <v>1.8329021730799999</v>
+        <v>6.2520047547776603</v>
       </c>
       <c r="E56" s="13">
-        <v>1.8329021730799999</v>
+        <v>6.2520047547776603</v>
       </c>
       <c r="F56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M56" s="13">
+        <v>1.8329021730799999</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1.8329021730799999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>57</v>
       </c>
@@ -2636,13 +3402,27 @@
         <v>49</v>
       </c>
       <c r="D57" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M57" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E57" s="13">
+      <c r="N57" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
@@ -2654,8 +3434,18 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>57</v>
       </c>
@@ -2666,13 +3456,27 @@
         <v>48</v>
       </c>
       <c r="D59" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="E59" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M59" s="13">
         <v>1.8329021730799999</v>
       </c>
-      <c r="E59" s="13">
+      <c r="N59" s="13">
         <v>1.8329021730799999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>57</v>
       </c>
@@ -2683,13 +3487,27 @@
         <v>49</v>
       </c>
       <c r="D60" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M60" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E60" s="13">
+      <c r="N60" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>57</v>
       </c>
@@ -2701,8 +3519,18 @@
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>57</v>
       </c>
@@ -2713,13 +3541,27 @@
         <v>48</v>
       </c>
       <c r="D62" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="E62" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M62" s="13">
         <v>1.8329021730799999</v>
       </c>
-      <c r="E62" s="13">
+      <c r="N62" s="13">
         <v>1.8329021730799999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>57</v>
       </c>
@@ -2730,13 +3572,27 @@
         <v>49</v>
       </c>
       <c r="D63" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E63" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M63" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E63" s="13">
+      <c r="N63" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>57</v>
       </c>
@@ -2748,8 +3604,18 @@
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>57</v>
       </c>
@@ -2760,13 +3626,27 @@
         <v>48</v>
       </c>
       <c r="D65" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="E65" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M65" s="13">
         <v>1.8329021730799999</v>
       </c>
-      <c r="E65" s="13">
+      <c r="N65" s="13">
         <v>1.8329021730799999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>57</v>
       </c>
@@ -2777,13 +3657,27 @@
         <v>49</v>
       </c>
       <c r="D66" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M66" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E66" s="13">
+      <c r="N66" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>57</v>
       </c>
@@ -2795,8 +3689,18 @@
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" ref="J67:J73" si="2">EXP(M67)</f>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K73" si="3">EXP(N67)</f>
+        <v>1</v>
+      </c>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>57</v>
       </c>
@@ -2807,13 +3711,27 @@
         <v>48</v>
       </c>
       <c r="D68" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="E68" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M68" s="13">
         <v>1.8329021730799999</v>
       </c>
-      <c r="E68" s="13">
+      <c r="N68" s="13">
         <v>1.8329021730799999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>57</v>
       </c>
@@ -2824,13 +3742,27 @@
         <v>49</v>
       </c>
       <c r="D69" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M69" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E69" s="13">
+      <c r="N69" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>57</v>
       </c>
@@ -2842,8 +3774,18 @@
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>57</v>
       </c>
@@ -2854,13 +3796,27 @@
         <v>48</v>
       </c>
       <c r="D71" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="E71" s="13">
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>6.2520047547776603</v>
+      </c>
+      <c r="M71" s="13">
         <v>1.8329021730799999</v>
       </c>
-      <c r="E71" s="13">
+      <c r="N71" s="13">
         <v>1.8329021730799999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>57</v>
       </c>
@@ -2871,13 +3827,27 @@
         <v>49</v>
       </c>
       <c r="D72" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>2.1488165668760093</v>
+      </c>
+      <c r="M72" s="13">
         <v>0.764917256584</v>
       </c>
-      <c r="E72" s="13">
+      <c r="N72" s="13">
         <v>0.764917256584</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>57</v>
       </c>
@@ -2889,6 +3859,16 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B37">
@@ -3038,10 +4018,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3049,7 +4029,7 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -3062,8 +4042,11 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
@@ -3071,13 +4054,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3551130443699999</v>
+        <v>3.8771992274047169</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>1.3551130443699999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>64</v>
       </c>
@@ -3085,11 +4071,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>3.8771992274047169</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.3551130443699999</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
@@ -3097,11 +4088,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>3.8771992274047169</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="1">
         <v>1.3551130443699999</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>64</v>
       </c>
@@ -3109,11 +4103,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>3.8771992274047169</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="1">
         <v>1.3551130443699999</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
@@ -3121,11 +4118,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>3.8771992274047169</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="1">
         <v>1.3551130443699999</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>64</v>
       </c>
@@ -3133,11 +4133,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <v>3.8771992274047169</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="1">
         <v>1.3551130443699999</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>65</v>
       </c>
@@ -3145,13 +4148,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>1.7866831193499999</v>
+        <v>5.9696190780676437</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="7">
+        <v>1.7866831193499999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>65</v>
       </c>
@@ -3159,11 +4165,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="7">
+        <v>5.9696190780676437</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="7">
         <v>1.7866831193499999</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -3171,11 +4180,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>5.9696190780676437</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="7">
         <v>1.7866831193499999</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -3183,11 +4195,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
+        <v>5.9696190780676437</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="7">
         <v>1.7866831193499999</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -3195,11 +4210,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="7">
+        <v>5.9696190780676437</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="7">
         <v>1.7866831193499999</v>
       </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>65</v>
       </c>
@@ -3207,11 +4225,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="7">
+        <v>5.9696190780676437</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="7">
         <v>1.7866831193499999</v>
       </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3221,7 +4242,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3231,7 +4252,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3241,7 +4262,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3251,7 +4272,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3261,7 +4282,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3271,7 +4292,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
@@ -3279,13 +4300,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>1.9484092149000001</v>
+        <v>7.0175153377882653</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="7">
+        <v>1.9484092149000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
@@ -3293,11 +4317,14 @@
         <v>2</v>
       </c>
       <c r="C21" s="7">
+        <v>7.0175153377882653</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="7">
         <v>1.9484092149000001</v>
       </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>57</v>
       </c>
@@ -3305,11 +4332,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="7">
+        <v>7.0175153377882653</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="7">
         <v>1.9484092149000001</v>
       </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -3317,11 +4347,14 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
+        <v>7.0175153377882653</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="7">
         <v>1.9484092149000001</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -3329,11 +4362,14 @@
         <v>5</v>
       </c>
       <c r="C24" s="7">
+        <v>7.0175153377882653</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="7">
         <v>1.9484092149000001</v>
       </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -3341,9 +4377,12 @@
         <v>6</v>
       </c>
       <c r="C25" s="7">
+        <v>7.0175153377882653</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="7">
         <v>1.9484092149000001</v>
       </c>
-      <c r="D25" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
@@ -27140,10 +28179,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27151,7 +28190,7 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -27167,8 +28206,11 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -27176,13 +28218,22 @@
         <v>48</v>
       </c>
       <c r="C2" s="1">
+        <v>2.7971698490665675</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.7778010919256682</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.02860813782</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>1.02165964059</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -27190,13 +28241,19 @@
         <v>49</v>
       </c>
       <c r="C3" s="1">
-        <v>1.75</v>
+        <v>1.7862024155430378</v>
       </c>
       <c r="D3" s="1">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7862024155430378</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.58009181060299997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.58009181060299997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -27205,8 +28262,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -27214,13 +28273,19 @@
         <v>48</v>
       </c>
       <c r="C5" s="1">
+        <v>2.7625653978402638</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5993351873576613</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.01615973999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>1.2807491582299999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -27228,13 +28293,19 @@
         <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>1.7862024155430378</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7862024155430378</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.58009181060299997</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>0.58009181060299997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -27244,7 +28315,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -27258,7 +28329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>

--- a/data/Sablefish_Input_matchMGMTqselex.xlsx
+++ b/data/Sablefish_Input_matchMGMTqselex.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="2760" windowWidth="38400" windowHeight="22620" tabRatio="767" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="43680" yWindow="2760" windowWidth="38400" windowHeight="22620" tabRatio="767" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -928,8 +928,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4020,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
@@ -27233,8 +27233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27261,7 +27261,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>

--- a/data/Sablefish_Input_matchMGMTqselex.xlsx
+++ b/data/Sablefish_Input_matchMGMTqselex.xlsx
@@ -27416,7 +27416,7 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -27449,7 +27449,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -27460,7 +27460,7 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>

--- a/data/Sablefish_Input_matchMGMTqselex.xlsx
+++ b/data/Sablefish_Input_matchMGMTqselex.xlsx
@@ -27391,7 +27391,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27416,7 +27416,7 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -27449,7 +27449,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -27460,7 +27460,7 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>
@@ -28166,7 +28166,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
